--- a/ja/full/Solver/Sample_Solver_7.0.xlsx
+++ b/ja/full/Solver/Sample_Solver_7.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Devel\XLPack\XLPack_70\XLPack\release\sample\ja\full\Solver\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Work\XLPack\XLPack_70\XLPack\release\sample\ja\full\Solver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8F8E44E-B1A0-46EF-9BE7-63767B099530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3646F521-01AB-43B9-A321-986418B4D95F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11537" yWindow="137" windowWidth="21086" windowHeight="17357" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NLEq1" sheetId="9" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="179">
   <si>
     <t>方程式の定義</t>
     <rPh sb="0" eb="3">
@@ -1005,6 +1005,22 @@
   </si>
   <si>
     <t>t = 0 で y1 = 1, y2 = 0, dy1/dt = 0, dy2/dt = sqrt(3)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>R8C2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>R9C2:R12C2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>R13C2:R16C2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>R8C4:R37C8</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1055,7 +1071,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1080,6 +1096,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="29">
     <border>
@@ -1484,7 +1506,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1651,6 +1673,18 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1963,27 +1997,27 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.61328125" customWidth="1"/>
-    <col min="2" max="2" width="10.61328125" customWidth="1"/>
-    <col min="4" max="6" width="14.61328125" customWidth="1"/>
+    <col min="1" max="1" width="14.6328125" customWidth="1"/>
+    <col min="2" max="2" width="10.6328125" customWidth="1"/>
+    <col min="4" max="6" width="14.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1991,7 +2025,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="22" t="s">
         <v>53</v>
       </c>
@@ -2006,7 +2040,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>34</v>
       </c>
@@ -2022,7 +2056,7 @@
       </c>
       <c r="F7" s="14"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D8" s="19">
         <v>0</v>
       </c>
@@ -2031,7 +2065,7 @@
       </c>
       <c r="F8" s="15"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>66</v>
       </c>
@@ -2039,49 +2073,49 @@
       <c r="E9" s="19"/>
       <c r="F9" s="15"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="57" t="s">
         <v>67</v>
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="19"/>
       <c r="F10" s="15"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="58" t="s">
         <v>68</v>
       </c>
       <c r="D11" s="19"/>
       <c r="E11" s="19"/>
       <c r="F11" s="15"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="58" t="s">
         <v>69</v>
       </c>
       <c r="D12" s="19"/>
       <c r="E12" s="19"/>
       <c r="F12" s="15"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="59">
         <v>1E-8</v>
       </c>
       <c r="D13" s="19"/>
       <c r="E13" s="19"/>
       <c r="F13" s="15"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D14" s="19"/>
       <c r="E14" s="19"/>
       <c r="F14" s="15"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D15" s="19"/>
       <c r="E15" s="19"/>
       <c r="F15" s="15"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="16"/>
@@ -2100,27 +2134,27 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.61328125" customWidth="1"/>
-    <col min="2" max="2" width="10.61328125" customWidth="1"/>
-    <col min="4" max="6" width="14.61328125" customWidth="1"/>
+    <col min="1" max="1" width="14.6328125" customWidth="1"/>
+    <col min="2" max="2" width="10.6328125" customWidth="1"/>
+    <col min="4" max="6" width="14.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>89</v>
       </c>
@@ -2128,7 +2162,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="22" t="s">
         <v>53</v>
       </c>
@@ -2143,7 +2177,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>34</v>
       </c>
@@ -2159,7 +2193,7 @@
       </c>
       <c r="F7" s="14"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D8" s="19">
         <v>0</v>
       </c>
@@ -2168,7 +2202,7 @@
       </c>
       <c r="F8" s="15"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>66</v>
       </c>
@@ -2180,8 +2214,8 @@
       </c>
       <c r="F9" s="15"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="57" t="s">
         <v>83</v>
       </c>
       <c r="D10" s="19">
@@ -2192,8 +2226,8 @@
       </c>
       <c r="F10" s="15"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="58" t="s">
         <v>84</v>
       </c>
       <c r="D11" s="19">
@@ -2204,8 +2238,8 @@
       </c>
       <c r="F11" s="15"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="58" t="s">
         <v>85</v>
       </c>
       <c r="D12" s="19">
@@ -2216,8 +2250,8 @@
       </c>
       <c r="F12" s="15"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="58">
         <v>1E-8</v>
       </c>
       <c r="D13" s="19">
@@ -2228,41 +2262,41 @@
       </c>
       <c r="F13" s="15"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="58">
         <v>1</v>
       </c>
       <c r="D14" s="19"/>
       <c r="E14" s="19"/>
       <c r="F14" s="15"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="58">
         <v>1</v>
       </c>
       <c r="D15" s="19"/>
       <c r="E15" s="19"/>
       <c r="F15" s="15"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="59">
         <v>1</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="16"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="55" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>89</v>
       </c>
@@ -2270,7 +2304,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="22" t="s">
         <v>53</v>
       </c>
@@ -2285,7 +2319,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
         <v>34</v>
       </c>
@@ -2301,12 +2335,12 @@
       </c>
       <c r="F23" s="14"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D24" s="19"/>
       <c r="E24" s="19"/>
       <c r="F24" s="15"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>66</v>
       </c>
@@ -2314,73 +2348,73 @@
       <c r="E25" s="19"/>
       <c r="F25" s="15"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="57" t="s">
         <v>135</v>
       </c>
       <c r="D26" s="19"/>
       <c r="E26" s="19"/>
       <c r="F26" s="15"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="58" t="s">
         <v>136</v>
       </c>
       <c r="D27" s="19"/>
       <c r="E27" s="19"/>
       <c r="F27" s="15"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="58" t="s">
         <v>140</v>
       </c>
       <c r="D28" s="19"/>
       <c r="E28" s="19"/>
       <c r="F28" s="15"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="58">
         <v>1E-8</v>
       </c>
       <c r="D29" s="19"/>
       <c r="E29" s="19"/>
       <c r="F29" s="15"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="58">
         <v>4</v>
       </c>
       <c r="D30" s="19"/>
       <c r="E30" s="19"/>
       <c r="F30" s="15"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="5">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="58">
         <v>0</v>
       </c>
       <c r="D31" s="19"/>
       <c r="E31" s="19"/>
       <c r="F31" s="15"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="59">
         <v>1</v>
       </c>
       <c r="D32" s="20"/>
       <c r="E32" s="20"/>
       <c r="F32" s="16"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="55" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>89</v>
       </c>
@@ -2388,7 +2422,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="22" t="s">
         <v>53</v>
       </c>
@@ -2403,7 +2437,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
         <v>34</v>
       </c>
@@ -2419,7 +2453,7 @@
       </c>
       <c r="F39" s="14"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D40" s="19">
         <v>0</v>
       </c>
@@ -2428,7 +2462,7 @@
       </c>
       <c r="F40" s="15"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>66</v>
       </c>
@@ -2440,73 +2474,73 @@
       </c>
       <c r="F41" s="15"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="57" t="s">
         <v>143</v>
       </c>
       <c r="D42" s="19"/>
       <c r="E42" s="19"/>
       <c r="F42" s="15"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="58" t="s">
         <v>144</v>
       </c>
       <c r="D43" s="19"/>
       <c r="E43" s="19"/>
       <c r="F43" s="15"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="58" t="s">
         <v>145</v>
       </c>
       <c r="D44" s="19"/>
       <c r="E44" s="19"/>
       <c r="F44" s="15"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="5">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="58">
         <v>1E-8</v>
       </c>
       <c r="D45" s="19"/>
       <c r="E45" s="19"/>
       <c r="F45" s="15"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="5">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="58">
         <v>6</v>
       </c>
       <c r="D46" s="19"/>
       <c r="E46" s="19"/>
       <c r="F46" s="15"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="5">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="58">
         <v>0</v>
       </c>
       <c r="D47" s="19"/>
       <c r="E47" s="19"/>
       <c r="F47" s="15"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="59">
         <v>0</v>
       </c>
       <c r="D48" s="20"/>
       <c r="E48" s="20"/>
       <c r="F48" s="16"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="55" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>89</v>
       </c>
@@ -2514,7 +2548,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="22" t="s">
         <v>53</v>
       </c>
@@ -2529,7 +2563,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="9" t="s">
         <v>34</v>
       </c>
@@ -2545,7 +2579,7 @@
       </c>
       <c r="F55" s="14"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D56" s="19">
         <v>0</v>
       </c>
@@ -2554,7 +2588,7 @@
       </c>
       <c r="F56" s="15"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>66</v>
       </c>
@@ -2562,56 +2596,56 @@
       <c r="E57" s="19"/>
       <c r="F57" s="15"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="4" t="s">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="57" t="s">
         <v>148</v>
       </c>
       <c r="D58" s="19"/>
       <c r="E58" s="19"/>
       <c r="F58" s="15"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="58" t="s">
         <v>149</v>
       </c>
       <c r="D59" s="19"/>
       <c r="E59" s="19"/>
       <c r="F59" s="15"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="5" t="s">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="58" t="s">
         <v>150</v>
       </c>
       <c r="D60" s="19"/>
       <c r="E60" s="19"/>
       <c r="F60" s="15"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="5">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="58">
         <v>1E-8</v>
       </c>
       <c r="D61" s="19"/>
       <c r="E61" s="19"/>
       <c r="F61" s="15"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="5">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="58">
         <v>10</v>
       </c>
       <c r="D62" s="19"/>
       <c r="E62" s="19"/>
       <c r="F62" s="15"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="5">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="58">
         <v>1</v>
       </c>
       <c r="D63" s="19"/>
       <c r="E63" s="19"/>
       <c r="F63" s="15"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="59">
         <v>1</v>
       </c>
       <c r="D64" s="20"/>
@@ -2632,28 +2666,28 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.61328125" customWidth="1"/>
-    <col min="2" max="2" width="10.61328125" customWidth="1"/>
-    <col min="4" max="4" width="14.61328125" customWidth="1"/>
-    <col min="5" max="5" width="16.61328125" customWidth="1"/>
+    <col min="1" max="1" width="14.6328125" customWidth="1"/>
+    <col min="2" max="2" width="10.6328125" customWidth="1"/>
+    <col min="4" max="4" width="14.6328125" customWidth="1"/>
+    <col min="5" max="5" width="16.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>89</v>
       </c>
@@ -2661,7 +2695,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="22" t="s">
         <v>53</v>
       </c>
@@ -2673,7 +2707,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>34</v>
       </c>
@@ -2686,13 +2720,13 @@
       </c>
       <c r="E7" s="14"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D8" s="19">
         <v>1</v>
       </c>
       <c r="E8" s="15"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>66</v>
       </c>
@@ -2701,8 +2735,8 @@
       </c>
       <c r="E9" s="15"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="57" t="s">
         <v>83</v>
       </c>
       <c r="D10" s="19">
@@ -2710,8 +2744,8 @@
       </c>
       <c r="E10" s="15"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="58" t="s">
         <v>84</v>
       </c>
       <c r="D11" s="19">
@@ -2719,8 +2753,8 @@
       </c>
       <c r="E11" s="15"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="58" t="s">
         <v>132</v>
       </c>
       <c r="D12" s="19">
@@ -2728,42 +2762,42 @@
       </c>
       <c r="E12" s="15"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="58">
         <v>1E-8</v>
       </c>
       <c r="D13" s="19"/>
       <c r="E13" s="15"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="58">
         <v>1</v>
       </c>
       <c r="D14" s="19"/>
       <c r="E14" s="15"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="59">
         <v>1</v>
       </c>
       <c r="D15" s="19"/>
       <c r="E15" s="15"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D16" s="20"/>
       <c r="E16" s="16"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>89</v>
       </c>
@@ -2771,7 +2805,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="22" t="s">
         <v>53</v>
       </c>
@@ -2783,7 +2817,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
         <v>34</v>
       </c>
@@ -2796,13 +2830,13 @@
       </c>
       <c r="E23" s="14"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D24" s="19">
         <v>1</v>
       </c>
       <c r="E24" s="15"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>66</v>
       </c>
@@ -2811,49 +2845,49 @@
       </c>
       <c r="E25" s="15"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="57" t="s">
         <v>135</v>
       </c>
       <c r="D26" s="19"/>
       <c r="E26" s="15"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="58" t="s">
         <v>136</v>
       </c>
       <c r="D27" s="19"/>
       <c r="E27" s="15"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="58" t="s">
         <v>137</v>
       </c>
       <c r="D28" s="19"/>
       <c r="E28" s="15"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="58">
         <v>1E-8</v>
       </c>
       <c r="D29" s="19"/>
       <c r="E29" s="15"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="58">
         <v>4</v>
       </c>
       <c r="D30" s="19"/>
       <c r="E30" s="15"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="6">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="59">
         <v>1</v>
       </c>
       <c r="D31" s="19"/>
       <c r="E31" s="15"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D32" s="20"/>
       <c r="E32" s="16"/>
     </row>
@@ -2871,27 +2905,27 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.61328125" customWidth="1"/>
-    <col min="2" max="2" width="10.61328125" customWidth="1"/>
-    <col min="4" max="4" width="16.61328125" customWidth="1"/>
+    <col min="1" max="1" width="14.6328125" customWidth="1"/>
+    <col min="2" max="2" width="10.6328125" customWidth="1"/>
+    <col min="4" max="4" width="16.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>89</v>
       </c>
@@ -2899,7 +2933,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="22" t="s">
         <v>53</v>
       </c>
@@ -2908,7 +2942,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>34</v>
       </c>
@@ -2918,49 +2952,49 @@
       </c>
       <c r="D7" s="14"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D8" s="15"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>66</v>
       </c>
       <c r="D9" s="15"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="57" t="s">
         <v>83</v>
       </c>
       <c r="D10" s="15"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="58" t="s">
         <v>84</v>
       </c>
       <c r="D11" s="15"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="58" t="s">
         <v>158</v>
       </c>
       <c r="D12" s="15"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="58">
         <v>1E-8</v>
       </c>
       <c r="D13" s="15"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="59">
         <v>1</v>
       </c>
       <c r="D14" s="15"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D15" s="15"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D16" s="16"/>
     </row>
   </sheetData>
@@ -2977,32 +3011,32 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.61328125" customWidth="1"/>
-    <col min="2" max="2" width="14.61328125" customWidth="1"/>
-    <col min="4" max="8" width="14.61328125" customWidth="1"/>
+    <col min="1" max="1" width="10.6328125" customWidth="1"/>
+    <col min="2" max="2" width="14.6328125" customWidth="1"/>
+    <col min="4" max="8" width="14.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -3010,12 +3044,13 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="23">
-        <v>2</v>
+      <c r="B7" s="56">
+        <f>A19</f>
+        <v>4</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>46</v>
@@ -3033,7 +3068,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="22" t="s">
         <v>37</v>
       </c>
@@ -3055,7 +3090,7 @@
         <v>1.7320508075688772</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>38</v>
       </c>
@@ -3068,7 +3103,7 @@
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>39</v>
       </c>
@@ -3081,7 +3116,7 @@
       <c r="G10" s="15"/>
       <c r="H10" s="15"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>40</v>
       </c>
@@ -3094,7 +3129,7 @@
       <c r="G11" s="15"/>
       <c r="H11" s="15"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>41</v>
       </c>
@@ -3107,7 +3142,7 @@
       <c r="G12" s="15"/>
       <c r="H12" s="15"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>42</v>
       </c>
@@ -3123,7 +3158,7 @@
       <c r="G13" s="15"/>
       <c r="H13" s="15"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>43</v>
       </c>
@@ -3139,7 +3174,7 @@
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>44</v>
       </c>
@@ -3155,7 +3190,7 @@
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
         <v>45</v>
       </c>
@@ -3171,7 +3206,7 @@
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D17" s="20">
         <v>4.5</v>
       </c>
@@ -3180,7 +3215,10 @@
       <c r="G17" s="16"/>
       <c r="H17" s="16"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>66</v>
+      </c>
       <c r="D18" s="21">
         <v>5</v>
       </c>
@@ -3189,7 +3227,10 @@
       <c r="G18" s="25"/>
       <c r="H18" s="25"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="57">
+        <v>4</v>
+      </c>
       <c r="D19" s="19">
         <v>5.5</v>
       </c>
@@ -3198,7 +3239,10 @@
       <c r="G19" s="15"/>
       <c r="H19" s="15"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="58" t="s">
+        <v>175</v>
+      </c>
       <c r="D20" s="19">
         <v>6</v>
       </c>
@@ -3207,7 +3251,10 @@
       <c r="G20" s="15"/>
       <c r="H20" s="15"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="58" t="s">
+        <v>176</v>
+      </c>
       <c r="D21" s="19">
         <v>6.5</v>
       </c>
@@ -3216,7 +3263,10 @@
       <c r="G21" s="15"/>
       <c r="H21" s="15"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="58" t="s">
+        <v>177</v>
+      </c>
       <c r="D22" s="19">
         <v>7</v>
       </c>
@@ -3225,9 +3275,9 @@
       <c r="G22" s="15"/>
       <c r="H22" s="15"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>66</v>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="58" t="s">
+        <v>178</v>
       </c>
       <c r="D23" s="19">
         <v>7.5</v>
@@ -3237,9 +3287,9 @@
       <c r="G23" s="15"/>
       <c r="H23" s="15"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
-        <v>4</v>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="58">
+        <v>1E-8</v>
       </c>
       <c r="D24" s="19">
         <v>8</v>
@@ -3249,9 +3299,9 @@
       <c r="G24" s="15"/>
       <c r="H24" s="15"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>86</v>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="59">
+        <v>1</v>
       </c>
       <c r="D25" s="19">
         <v>8.5</v>
@@ -3261,10 +3311,7 @@
       <c r="G25" s="15"/>
       <c r="H25" s="15"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>87</v>
-      </c>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D26" s="19">
         <v>9</v>
       </c>
@@ -3273,10 +3320,7 @@
       <c r="G26" s="15"/>
       <c r="H26" s="15"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>65</v>
-      </c>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D27" s="20">
         <v>9.5</v>
       </c>
@@ -3285,10 +3329,7 @@
       <c r="G27" s="16"/>
       <c r="H27" s="16"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>88</v>
-      </c>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D28" s="21">
         <v>10</v>
       </c>
@@ -3297,69 +3338,63 @@
       <c r="G28" s="25"/>
       <c r="H28" s="25"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
-        <v>1E-8</v>
-      </c>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D29" s="19"/>
       <c r="E29" s="15"/>
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="6">
-        <v>1</v>
-      </c>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D30" s="19"/>
       <c r="E30" s="15"/>
       <c r="F30" s="15"/>
       <c r="G30" s="15"/>
       <c r="H30" s="15"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D31" s="19"/>
       <c r="E31" s="15"/>
       <c r="F31" s="15"/>
       <c r="G31" s="15"/>
       <c r="H31" s="15"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D32" s="19"/>
       <c r="E32" s="15"/>
       <c r="F32" s="15"/>
       <c r="G32" s="15"/>
       <c r="H32" s="15"/>
     </row>
-    <row r="33" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D33" s="19"/>
       <c r="E33" s="15"/>
       <c r="F33" s="15"/>
       <c r="G33" s="15"/>
       <c r="H33" s="15"/>
     </row>
-    <row r="34" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D34" s="19"/>
       <c r="E34" s="15"/>
       <c r="F34" s="15"/>
       <c r="G34" s="15"/>
       <c r="H34" s="15"/>
     </row>
-    <row r="35" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D35" s="19"/>
       <c r="E35" s="15"/>
       <c r="F35" s="15"/>
       <c r="G35" s="15"/>
       <c r="H35" s="15"/>
     </row>
-    <row r="36" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D36" s="19"/>
       <c r="E36" s="15"/>
       <c r="F36" s="15"/>
       <c r="G36" s="15"/>
       <c r="H36" s="15"/>
     </row>
-    <row r="37" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D37" s="20"/>
       <c r="E37" s="16"/>
       <c r="F37" s="16"/>
@@ -3386,32 +3421,32 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.61328125" customWidth="1"/>
-    <col min="2" max="2" width="14.61328125" customWidth="1"/>
-    <col min="4" max="8" width="14.61328125" customWidth="1"/>
+    <col min="1" max="1" width="10.6328125" customWidth="1"/>
+    <col min="2" max="2" width="14.6328125" customWidth="1"/>
+    <col min="4" max="8" width="14.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -3419,11 +3454,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="22" t="s">
         <v>36</v>
       </c>
       <c r="B7" s="23">
+        <f>A19</f>
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
@@ -3442,7 +3478,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="22" t="s">
         <v>37</v>
       </c>
@@ -3459,7 +3495,7 @@
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>38</v>
       </c>
@@ -3472,7 +3508,7 @@
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>39</v>
       </c>
@@ -3485,7 +3521,7 @@
       <c r="G10" s="15"/>
       <c r="H10" s="15"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>40</v>
       </c>
@@ -3498,7 +3534,7 @@
       <c r="G11" s="15"/>
       <c r="H11" s="15"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>41</v>
       </c>
@@ -3511,7 +3547,7 @@
       <c r="G12" s="15"/>
       <c r="H12" s="15"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>42</v>
       </c>
@@ -3527,7 +3563,7 @@
       <c r="G13" s="15"/>
       <c r="H13" s="15"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>43</v>
       </c>
@@ -3543,7 +3579,7 @@
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>44</v>
       </c>
@@ -3556,7 +3592,7 @@
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
         <v>45</v>
       </c>
@@ -3569,7 +3605,7 @@
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D17" s="20">
         <v>4.5</v>
       </c>
@@ -3578,7 +3614,10 @@
       <c r="G17" s="16"/>
       <c r="H17" s="16"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>66</v>
+      </c>
       <c r="D18" s="21">
         <v>5</v>
       </c>
@@ -3587,7 +3626,10 @@
       <c r="G18" s="25"/>
       <c r="H18" s="25"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="57">
+        <v>2</v>
+      </c>
       <c r="D19" s="19">
         <v>5.5</v>
       </c>
@@ -3596,7 +3638,10 @@
       <c r="G19" s="15"/>
       <c r="H19" s="15"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="58" t="s">
+        <v>86</v>
+      </c>
       <c r="D20" s="19">
         <v>6</v>
       </c>
@@ -3605,7 +3650,10 @@
       <c r="G20" s="15"/>
       <c r="H20" s="15"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="58" t="s">
+        <v>87</v>
+      </c>
       <c r="D21" s="19">
         <v>6.5</v>
       </c>
@@ -3614,7 +3662,10 @@
       <c r="G21" s="15"/>
       <c r="H21" s="15"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="58" t="s">
+        <v>65</v>
+      </c>
       <c r="D22" s="19">
         <v>7</v>
       </c>
@@ -3623,9 +3674,9 @@
       <c r="G22" s="15"/>
       <c r="H22" s="15"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>66</v>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="58" t="s">
+        <v>88</v>
       </c>
       <c r="D23" s="19">
         <v>7.5</v>
@@ -3635,9 +3686,9 @@
       <c r="G23" s="15"/>
       <c r="H23" s="15"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
-        <v>2</v>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="58">
+        <v>1E-8</v>
       </c>
       <c r="D24" s="19">
         <v>8</v>
@@ -3647,9 +3698,9 @@
       <c r="G24" s="15"/>
       <c r="H24" s="15"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>86</v>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="59">
+        <v>5</v>
       </c>
       <c r="D25" s="19">
         <v>8.5</v>
@@ -3659,10 +3710,7 @@
       <c r="G25" s="15"/>
       <c r="H25" s="15"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>87</v>
-      </c>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D26" s="19">
         <v>9</v>
       </c>
@@ -3671,10 +3719,7 @@
       <c r="G26" s="15"/>
       <c r="H26" s="15"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>65</v>
-      </c>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D27" s="20">
         <v>9.5</v>
       </c>
@@ -3683,10 +3728,7 @@
       <c r="G27" s="16"/>
       <c r="H27" s="16"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>88</v>
-      </c>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D28" s="21">
         <v>10</v>
       </c>
@@ -3695,69 +3737,63 @@
       <c r="G28" s="25"/>
       <c r="H28" s="25"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
-        <v>1E-8</v>
-      </c>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D29" s="19"/>
       <c r="E29" s="15"/>
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="6">
-        <v>5</v>
-      </c>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D30" s="19"/>
       <c r="E30" s="15"/>
       <c r="F30" s="15"/>
       <c r="G30" s="15"/>
       <c r="H30" s="15"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D31" s="19"/>
       <c r="E31" s="15"/>
       <c r="F31" s="15"/>
       <c r="G31" s="15"/>
       <c r="H31" s="15"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D32" s="19"/>
       <c r="E32" s="15"/>
       <c r="F32" s="15"/>
       <c r="G32" s="15"/>
       <c r="H32" s="15"/>
     </row>
-    <row r="33" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D33" s="19"/>
       <c r="E33" s="15"/>
       <c r="F33" s="15"/>
       <c r="G33" s="15"/>
       <c r="H33" s="15"/>
     </row>
-    <row r="34" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D34" s="19"/>
       <c r="E34" s="15"/>
       <c r="F34" s="15"/>
       <c r="G34" s="15"/>
       <c r="H34" s="15"/>
     </row>
-    <row r="35" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D35" s="19"/>
       <c r="E35" s="15"/>
       <c r="F35" s="15"/>
       <c r="G35" s="15"/>
       <c r="H35" s="15"/>
     </row>
-    <row r="36" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D36" s="19"/>
       <c r="E36" s="15"/>
       <c r="F36" s="15"/>
       <c r="G36" s="15"/>
       <c r="H36" s="15"/>
     </row>
-    <row r="37" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D37" s="20"/>
       <c r="E37" s="16"/>
       <c r="F37" s="16"/>
@@ -3779,36 +3815,37 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46AFC8D0-D10C-4598-A30B-0D4D287CE382}">
+  <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.61328125" customWidth="1"/>
-    <col min="2" max="2" width="14.61328125" customWidth="1"/>
-    <col min="4" max="12" width="14.61328125" customWidth="1"/>
+    <col min="1" max="1" width="10.6328125" customWidth="1"/>
+    <col min="2" max="2" width="14.6328125" customWidth="1"/>
+    <col min="4" max="12" width="14.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -3816,11 +3853,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="22" t="s">
         <v>36</v>
       </c>
       <c r="B7" s="23">
+        <f>A19</f>
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
@@ -3843,7 +3881,7 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="22" t="s">
         <v>37</v>
       </c>
@@ -3869,7 +3907,7 @@
       <c r="K8" s="18"/>
       <c r="L8" s="18"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>38</v>
       </c>
@@ -3886,7 +3924,7 @@
       <c r="K9" s="15"/>
       <c r="L9" s="15"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>39</v>
       </c>
@@ -3903,7 +3941,7 @@
       <c r="K10" s="15"/>
       <c r="L10" s="15"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>40</v>
       </c>
@@ -3920,7 +3958,7 @@
       <c r="K11" s="15"/>
       <c r="L11" s="15"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>41</v>
       </c>
@@ -3937,7 +3975,7 @@
       <c r="K12" s="15"/>
       <c r="L12" s="15"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>162</v>
       </c>
@@ -3957,7 +3995,7 @@
       <c r="K13" s="15"/>
       <c r="L13" s="15"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>163</v>
       </c>
@@ -3977,7 +4015,7 @@
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>164</v>
       </c>
@@ -3994,7 +4032,7 @@
       <c r="K15" s="15"/>
       <c r="L15" s="15"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
         <v>165</v>
       </c>
@@ -4011,7 +4049,7 @@
       <c r="K16" s="15"/>
       <c r="L16" s="15"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D17" s="20">
         <v>4.5</v>
       </c>
@@ -4024,7 +4062,10 @@
       <c r="K17" s="16"/>
       <c r="L17" s="16"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>66</v>
+      </c>
       <c r="D18" s="21">
         <v>5</v>
       </c>
@@ -4037,7 +4078,10 @@
       <c r="K18" s="25"/>
       <c r="L18" s="25"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="57">
+        <v>2</v>
+      </c>
       <c r="D19" s="19">
         <v>5.5</v>
       </c>
@@ -4050,7 +4094,10 @@
       <c r="K19" s="15"/>
       <c r="L19" s="15"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="58" t="s">
+        <v>169</v>
+      </c>
       <c r="D20" s="19">
         <v>6</v>
       </c>
@@ -4063,7 +4110,10 @@
       <c r="K20" s="15"/>
       <c r="L20" s="15"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="58" t="s">
+        <v>170</v>
+      </c>
       <c r="D21" s="19">
         <v>6.5</v>
       </c>
@@ -4076,7 +4126,10 @@
       <c r="K21" s="15"/>
       <c r="L21" s="15"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="58" t="s">
+        <v>72</v>
+      </c>
       <c r="D22" s="19">
         <v>7</v>
       </c>
@@ -4089,9 +4142,9 @@
       <c r="K22" s="15"/>
       <c r="L22" s="15"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>66</v>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="58" t="s">
+        <v>171</v>
       </c>
       <c r="D23" s="19">
         <v>7.5</v>
@@ -4105,9 +4158,9 @@
       <c r="K23" s="15"/>
       <c r="L23" s="15"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
-        <v>2</v>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="58">
+        <v>1E-8</v>
       </c>
       <c r="D24" s="19">
         <v>8</v>
@@ -4121,9 +4174,9 @@
       <c r="K24" s="15"/>
       <c r="L24" s="15"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>169</v>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="59">
+        <v>1</v>
       </c>
       <c r="D25" s="19">
         <v>8.5</v>
@@ -4137,10 +4190,7 @@
       <c r="K25" s="15"/>
       <c r="L25" s="15"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>170</v>
-      </c>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D26" s="19">
         <v>9</v>
       </c>
@@ -4153,10 +4203,7 @@
       <c r="K26" s="15"/>
       <c r="L26" s="15"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>72</v>
-      </c>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D27" s="20">
         <v>9.5</v>
       </c>
@@ -4169,10 +4216,7 @@
       <c r="K27" s="16"/>
       <c r="L27" s="16"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>171</v>
-      </c>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D28" s="21">
         <v>10</v>
       </c>
@@ -4185,10 +4229,7 @@
       <c r="K28" s="25"/>
       <c r="L28" s="25"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
-        <v>1E-8</v>
-      </c>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D29" s="19"/>
       <c r="E29" s="15"/>
       <c r="F29" s="15"/>
@@ -4199,10 +4240,7 @@
       <c r="K29" s="15"/>
       <c r="L29" s="15"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="6">
-        <v>1</v>
-      </c>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D30" s="19"/>
       <c r="E30" s="15"/>
       <c r="F30" s="15"/>
@@ -4213,7 +4251,7 @@
       <c r="K30" s="15"/>
       <c r="L30" s="15"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D31" s="19"/>
       <c r="E31" s="15"/>
       <c r="F31" s="15"/>
@@ -4224,7 +4262,7 @@
       <c r="K31" s="15"/>
       <c r="L31" s="15"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D32" s="19"/>
       <c r="E32" s="15"/>
       <c r="F32" s="15"/>
@@ -4235,7 +4273,7 @@
       <c r="K32" s="15"/>
       <c r="L32" s="15"/>
     </row>
-    <row r="33" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D33" s="19"/>
       <c r="E33" s="15"/>
       <c r="F33" s="15"/>
@@ -4246,7 +4284,7 @@
       <c r="K33" s="15"/>
       <c r="L33" s="15"/>
     </row>
-    <row r="34" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D34" s="19"/>
       <c r="E34" s="15"/>
       <c r="F34" s="15"/>
@@ -4257,7 +4295,7 @@
       <c r="K34" s="15"/>
       <c r="L34" s="15"/>
     </row>
-    <row r="35" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D35" s="19"/>
       <c r="E35" s="15"/>
       <c r="F35" s="15"/>
@@ -4268,7 +4306,7 @@
       <c r="K35" s="15"/>
       <c r="L35" s="15"/>
     </row>
-    <row r="36" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D36" s="19"/>
       <c r="E36" s="15"/>
       <c r="F36" s="15"/>
@@ -4279,7 +4317,7 @@
       <c r="K36" s="15"/>
       <c r="L36" s="15"/>
     </row>
-    <row r="37" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D37" s="20"/>
       <c r="E37" s="16"/>
       <c r="F37" s="16"/>
@@ -4310,71 +4348,72 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.61328125" customWidth="1"/>
-    <col min="2" max="2" width="10.61328125" customWidth="1"/>
+    <col min="1" max="1" width="16.6328125" customWidth="1"/>
+    <col min="2" max="2" width="10.6328125" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="10.61328125" customWidth="1"/>
+    <col min="4" max="4" width="10.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B7" s="17">
+        <f>A32</f>
         <v>2</v>
       </c>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="14"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B9" s="15"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>25</v>
       </c>
       <c r="B10" s="15"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="16"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>119</v>
       </c>
@@ -4384,7 +4423,7 @@
       </c>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>121</v>
       </c>
@@ -4394,21 +4433,21 @@
       </c>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>122</v>
       </c>
       <c r="B14" s="19"/>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>123</v>
       </c>
       <c r="B15" s="20"/>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>127</v>
       </c>
@@ -4423,7 +4462,7 @@
       <c r="D16" s="27"/>
       <c r="E16" s="28"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>126</v>
       </c>
@@ -4438,7 +4477,7 @@
       <c r="D17" s="30"/>
       <c r="E17" s="31"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>125</v>
       </c>
@@ -4447,7 +4486,7 @@
       <c r="D18" s="30"/>
       <c r="E18" s="31"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
         <v>124</v>
       </c>
@@ -4456,12 +4495,12 @@
       <c r="D19" s="33"/>
       <c r="E19" s="34"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>27</v>
       </c>
@@ -4469,7 +4508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>28</v>
       </c>
@@ -4477,89 +4516,89 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>29</v>
       </c>
       <c r="B23" s="19"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
         <v>30</v>
       </c>
       <c r="B24" s="20"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B26" s="14"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B27" s="15"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
         <v>25</v>
       </c>
       <c r="B28" s="15"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
         <v>26</v>
       </c>
       <c r="B29" s="16"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="57">
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="58" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="58" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="58" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="58" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="58" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="5">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="58">
         <v>1E-8</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="6">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" s="59">
         <v>1</v>
       </c>
     </row>
@@ -4583,45 +4622,46 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.61328125" customWidth="1"/>
-    <col min="2" max="5" width="10.61328125" customWidth="1"/>
+    <col min="1" max="1" width="14.6328125" customWidth="1"/>
+    <col min="2" max="5" width="10.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B7" s="17">
+        <f>A20</f>
         <v>2</v>
       </c>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="22" t="s">
         <v>53</v>
       </c>
@@ -4630,7 +4670,7 @@
       <c r="D8" s="48"/>
       <c r="E8" s="49"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="22" t="s">
         <v>120</v>
       </c>
@@ -4645,7 +4685,7 @@
       <c r="D9" s="51"/>
       <c r="E9" s="52"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="44" t="s">
         <v>102</v>
       </c>
@@ -4660,7 +4700,7 @@
       <c r="D10" s="27"/>
       <c r="E10" s="28"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
       <c r="B11" s="29">
         <f>2*B8</f>
@@ -4673,26 +4713,26 @@
       <c r="D11" s="30"/>
       <c r="E11" s="31"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="45"/>
       <c r="B12" s="29"/>
       <c r="C12" s="30"/>
       <c r="D12" s="30"/>
       <c r="E12" s="31"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="46"/>
       <c r="B13" s="32"/>
       <c r="C13" s="33"/>
       <c r="D13" s="33"/>
       <c r="E13" s="34"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="53" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="22" t="s">
         <v>27</v>
       </c>
@@ -4705,12 +4745,12 @@
       <c r="D15" s="51"/>
       <c r="E15" s="52"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="22" t="s">
         <v>23</v>
       </c>
@@ -4719,48 +4759,48 @@
       <c r="D17" s="48"/>
       <c r="E17" s="49"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="57">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="58" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="58" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="58" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="58" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="58" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="58">
         <v>1E-8</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="6">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="59">
         <v>1</v>
       </c>
     </row>
@@ -4784,27 +4824,27 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.61328125" customWidth="1"/>
-    <col min="2" max="2" width="10.61328125" customWidth="1"/>
-    <col min="4" max="6" width="14.61328125" customWidth="1"/>
+    <col min="1" max="1" width="14.6328125" customWidth="1"/>
+    <col min="2" max="2" width="10.6328125" customWidth="1"/>
+    <col min="4" max="6" width="14.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -4812,7 +4852,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="22" t="s">
         <v>53</v>
       </c>
@@ -4827,7 +4867,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>34</v>
       </c>
@@ -4843,7 +4883,7 @@
       </c>
       <c r="F7" s="14"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D8" s="19">
         <v>0</v>
       </c>
@@ -4852,7 +4892,7 @@
       </c>
       <c r="F8" s="15"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>66</v>
       </c>
@@ -4864,49 +4904,49 @@
       </c>
       <c r="F9" s="15"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="57" t="s">
         <v>67</v>
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="19"/>
       <c r="F10" s="15"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="58" t="s">
         <v>68</v>
       </c>
       <c r="D11" s="19"/>
       <c r="E11" s="19"/>
       <c r="F11" s="15"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="58" t="s">
         <v>69</v>
       </c>
       <c r="D12" s="19"/>
       <c r="E12" s="19"/>
       <c r="F12" s="15"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="59">
         <v>1E-8</v>
       </c>
       <c r="D13" s="19"/>
       <c r="E13" s="19"/>
       <c r="F13" s="15"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D14" s="19"/>
       <c r="E14" s="19"/>
       <c r="F14" s="15"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D15" s="19"/>
       <c r="E15" s="19"/>
       <c r="F15" s="15"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="16"/>
@@ -4925,68 +4965,69 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.61328125" customWidth="1"/>
-    <col min="2" max="2" width="10.61328125" customWidth="1"/>
+    <col min="1" max="1" width="14.6328125" customWidth="1"/>
+    <col min="2" max="2" width="10.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B7" s="17">
+        <f>A29</f>
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="14"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B9" s="15"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>25</v>
       </c>
       <c r="B10" s="15"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="16"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="54" t="s">
         <v>111</v>
       </c>
@@ -4995,7 +5036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>112</v>
       </c>
@@ -5004,7 +5045,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>113</v>
       </c>
@@ -5013,24 +5054,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>114</v>
       </c>
       <c r="B15" s="19"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
         <v>115</v>
       </c>
       <c r="B16" s="20"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>27</v>
       </c>
@@ -5038,7 +5079,7 @@
         <v>-1.2</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>28</v>
       </c>
@@ -5046,95 +5087,95 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>29</v>
       </c>
       <c r="B20" s="19"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
         <v>30</v>
       </c>
       <c r="B21" s="20"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B23" s="14"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B24" s="15"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>25</v>
       </c>
       <c r="B25" s="15"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
         <v>26</v>
       </c>
       <c r="B26" s="16"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="57">
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="58" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="58" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="58" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="58" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="58" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="5">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="58">
         <v>1E-8</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="6">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="59">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7" xr:uid="{C10CC324-7B41-49DE-AAA9-3916B24BF820}">
       <formula1>1</formula1>
       <formula2>4</formula2>
@@ -5152,44 +5193,45 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.61328125" customWidth="1"/>
-    <col min="2" max="5" width="10.61328125" customWidth="1"/>
+    <col min="1" max="1" width="14.6328125" customWidth="1"/>
+    <col min="2" max="5" width="10.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B7" s="17">
+        <f>A17</f>
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
         <v>53</v>
       </c>
@@ -5198,7 +5240,7 @@
       <c r="D8" s="24"/>
       <c r="E8" s="24"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="43" t="s">
         <v>34</v>
       </c>
@@ -5207,7 +5249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>95</v>
       </c>
@@ -5222,12 +5264,12 @@
       <c r="D10" s="35"/>
       <c r="E10" s="35"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>94</v>
       </c>
@@ -5240,12 +5282,12 @@
       <c r="D12" s="35"/>
       <c r="E12" s="35"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="22" t="s">
         <v>96</v>
       </c>
@@ -5254,48 +5296,48 @@
       <c r="D14" s="24"/>
       <c r="E14" s="24"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="57">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="58" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="58" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="58" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="58" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="58" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="58">
         <v>1E-8</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="59">
         <v>1</v>
       </c>
     </row>
@@ -5319,44 +5361,45 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.61328125" customWidth="1"/>
-    <col min="2" max="5" width="10.61328125" customWidth="1"/>
+    <col min="1" max="1" width="14.6328125" customWidth="1"/>
+    <col min="2" max="5" width="10.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B7" s="17">
+        <f>A17</f>
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
         <v>53</v>
       </c>
@@ -5365,7 +5408,7 @@
       <c r="D8" s="24"/>
       <c r="E8" s="24"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="43" t="s">
         <v>34</v>
       </c>
@@ -5374,7 +5417,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>95</v>
       </c>
@@ -5395,12 +5438,12 @@
         <v>-40</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>94</v>
       </c>
@@ -5417,12 +5460,12 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="22" t="s">
         <v>96</v>
       </c>
@@ -5431,48 +5474,48 @@
       <c r="D14" s="24"/>
       <c r="E14" s="24"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="57">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="58" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="58" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="58" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="58" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="58" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="58">
         <v>1E-8</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="59">
         <v>1</v>
       </c>
     </row>
@@ -5496,24 +5539,24 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.61328125" customWidth="1"/>
-    <col min="2" max="2" width="10.61328125" customWidth="1"/>
-    <col min="3" max="4" width="4.61328125" customWidth="1"/>
-    <col min="5" max="7" width="12.61328125" customWidth="1"/>
-    <col min="8" max="11" width="11.61328125" customWidth="1"/>
+    <col min="1" max="1" width="15.6328125" customWidth="1"/>
+    <col min="2" max="2" width="10.6328125" customWidth="1"/>
+    <col min="3" max="4" width="4.6328125" customWidth="1"/>
+    <col min="5" max="7" width="12.6328125" customWidth="1"/>
+    <col min="8" max="11" width="11.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
@@ -5522,7 +5565,7 @@
       </c>
       <c r="H3" s="10"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -5536,11 +5579,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="17">
+        <f>A24</f>
         <v>14</v>
       </c>
       <c r="D6" s="3"/>
@@ -5560,11 +5604,12 @@
       <c r="J6" s="36"/>
       <c r="K6" s="37"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="17">
+        <f>A25</f>
         <v>2</v>
       </c>
       <c r="C7" s="2"/>
@@ -5592,7 +5637,7 @@
       <c r="J7" s="39"/>
       <c r="K7" s="40"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>5</v>
       </c>
@@ -5621,7 +5666,7 @@
       <c r="J8" s="30"/>
       <c r="K8" s="31"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>6</v>
       </c>
@@ -5650,7 +5695,7 @@
       <c r="J9" s="30"/>
       <c r="K9" s="31"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>7</v>
       </c>
@@ -5679,7 +5724,7 @@
       <c r="J10" s="30"/>
       <c r="K10" s="31"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>8</v>
       </c>
@@ -5708,7 +5753,7 @@
       <c r="J11" s="30"/>
       <c r="K11" s="31"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
         <v>20</v>
       </c>
@@ -5736,7 +5781,7 @@
       <c r="J12" s="30"/>
       <c r="K12" s="31"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>13</v>
       </c>
@@ -5767,7 +5812,7 @@
       <c r="J13" s="30"/>
       <c r="K13" s="31"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>14</v>
       </c>
@@ -5798,7 +5843,7 @@
       <c r="J14" s="30"/>
       <c r="K14" s="31"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>15</v>
       </c>
@@ -5827,7 +5872,7 @@
       <c r="J15" s="30"/>
       <c r="K15" s="31"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
         <v>16</v>
       </c>
@@ -5856,7 +5901,7 @@
       <c r="J16" s="33"/>
       <c r="K16" s="34"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
         <v>21</v>
       </c>
@@ -5884,7 +5929,7 @@
       <c r="J17" s="27"/>
       <c r="K17" s="28"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>5</v>
       </c>
@@ -5913,7 +5958,7 @@
       <c r="J18" s="30"/>
       <c r="K18" s="31"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>6</v>
       </c>
@@ -5942,7 +5987,7 @@
       <c r="J19" s="30"/>
       <c r="K19" s="31"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>7</v>
       </c>
@@ -5971,7 +6016,7 @@
       <c r="J20" s="30"/>
       <c r="K20" s="31"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
         <v>8</v>
       </c>
@@ -5990,7 +6035,7 @@
       <c r="J21" s="30"/>
       <c r="K21" s="31"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D22" s="5">
         <v>16</v>
       </c>
@@ -6005,7 +6050,7 @@
       <c r="J22" s="30"/>
       <c r="K22" s="31"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>66</v>
       </c>
@@ -6023,8 +6068,8 @@
       <c r="J23" s="30"/>
       <c r="K23" s="31"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="57">
         <v>14</v>
       </c>
       <c r="D24" s="5">
@@ -6041,8 +6086,8 @@
       <c r="J24" s="30"/>
       <c r="K24" s="31"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="58">
         <v>2</v>
       </c>
       <c r="D25" s="5">
@@ -6059,8 +6104,8 @@
       <c r="J25" s="30"/>
       <c r="K25" s="31"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="58" t="s">
         <v>78</v>
       </c>
       <c r="D26" s="6">
@@ -6077,33 +6122,33 @@
       <c r="J26" s="33"/>
       <c r="K26" s="34"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="58" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="58" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="58" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="58" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="5">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="58">
         <v>1E-8</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="6">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="59">
         <v>1</v>
       </c>
     </row>
@@ -6133,24 +6178,24 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.61328125" customWidth="1"/>
-    <col min="2" max="5" width="10.61328125" customWidth="1"/>
-    <col min="6" max="7" width="4.61328125" customWidth="1"/>
-    <col min="8" max="10" width="12.61328125" customWidth="1"/>
-    <col min="11" max="14" width="11.61328125" customWidth="1"/>
+    <col min="1" max="1" width="15.6328125" customWidth="1"/>
+    <col min="2" max="5" width="10.6328125" customWidth="1"/>
+    <col min="6" max="7" width="4.6328125" customWidth="1"/>
+    <col min="8" max="10" width="12.6328125" customWidth="1"/>
+    <col min="11" max="14" width="11.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
@@ -6159,7 +6204,7 @@
       </c>
       <c r="K3" s="10"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -6173,11 +6218,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="17">
+        <f>A15</f>
         <v>14</v>
       </c>
       <c r="G6" s="3"/>
@@ -6197,11 +6243,12 @@
       <c r="M6" s="36"/>
       <c r="N6" s="37"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="17">
+        <f>A16</f>
         <v>2</v>
       </c>
       <c r="F7" s="2"/>
@@ -6229,7 +6276,7 @@
       <c r="M7" s="39"/>
       <c r="N7" s="40"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>107</v>
       </c>
@@ -6261,7 +6308,7 @@
       <c r="M8" s="30"/>
       <c r="N8" s="31"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>20</v>
       </c>
@@ -6289,7 +6336,7 @@
       <c r="M9" s="30"/>
       <c r="N9" s="31"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>108</v>
       </c>
@@ -6325,7 +6372,7 @@
       <c r="M10" s="30"/>
       <c r="N10" s="31"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>21</v>
       </c>
@@ -6353,7 +6400,7 @@
       <c r="M11" s="30"/>
       <c r="N11" s="31"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="22" t="s">
         <v>5</v>
       </c>
@@ -6385,7 +6432,7 @@
       <c r="M12" s="30"/>
       <c r="N12" s="31"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="G13" s="5">
         <v>7</v>
       </c>
@@ -6410,7 +6457,7 @@
       <c r="M13" s="30"/>
       <c r="N13" s="31"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>66</v>
       </c>
@@ -6438,8 +6485,8 @@
       <c r="M14" s="30"/>
       <c r="N14" s="31"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="57">
         <v>14</v>
       </c>
       <c r="G15" s="5">
@@ -6466,8 +6513,8 @@
       <c r="M15" s="30"/>
       <c r="N15" s="31"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="58">
         <v>2</v>
       </c>
       <c r="G16" s="6">
@@ -6494,8 +6541,8 @@
       <c r="M16" s="33"/>
       <c r="N16" s="34"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="58" t="s">
         <v>97</v>
       </c>
       <c r="G17" s="4">
@@ -6522,8 +6569,8 @@
       <c r="M17" s="27"/>
       <c r="N17" s="28"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="58" t="s">
         <v>109</v>
       </c>
       <c r="G18" s="5">
@@ -6550,8 +6597,8 @@
       <c r="M18" s="30"/>
       <c r="N18" s="31"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="58" t="s">
         <v>110</v>
       </c>
       <c r="G19" s="5">
@@ -6578,8 +6625,8 @@
       <c r="M19" s="30"/>
       <c r="N19" s="31"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="58" t="s">
         <v>99</v>
       </c>
       <c r="G20" s="5">
@@ -6606,8 +6653,8 @@
       <c r="M20" s="30"/>
       <c r="N20" s="31"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" s="58" t="s">
         <v>100</v>
       </c>
       <c r="G21" s="5">
@@ -6624,8 +6671,8 @@
       <c r="M21" s="30"/>
       <c r="N21" s="31"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" s="58">
         <v>1E-8</v>
       </c>
       <c r="G22" s="5">
@@ -6642,8 +6689,8 @@
       <c r="M22" s="30"/>
       <c r="N22" s="31"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" s="59">
         <v>1</v>
       </c>
       <c r="G23" s="5">
@@ -6660,7 +6707,7 @@
       <c r="M23" s="30"/>
       <c r="N23" s="31"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="G24" s="5">
         <v>18</v>
       </c>
@@ -6675,7 +6722,7 @@
       <c r="M24" s="30"/>
       <c r="N24" s="31"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="G25" s="5">
         <v>19</v>
       </c>
@@ -6690,7 +6737,7 @@
       <c r="M25" s="30"/>
       <c r="N25" s="31"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="G26" s="6">
         <v>20</v>
       </c>
